--- a/biology/Botanique/Terrasses_baha'ies/Terrasses_baha'ies.xlsx
+++ b/biology/Botanique/Terrasses_baha'ies/Terrasses_baha'ies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Terrasses_baha%27ies</t>
+          <t>Terrasses_baha'ies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les terrasses baha'ies du centre mondial baha'i, connues aussi comme les jardins suspendus de Haïfa, sont des jardins en terrasses autour du mausolée du Báb sur le mont Carmel près de Haïfa. Décrites comme l’une des huit nouvelles merveilles du monde, c’est une des attractions touristiques les plus visitées d’Israël. L’architecte en est Fariborz Sahba, d’origine iranienne, maintenant établi au Canada.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Terrasses_baha%27ies</t>
+          <t>Terrasses_baha'ies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction démarra en 1987 et les terrasses furent ouvertes au public en juin 2001.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Terrasses_baha%27ies</t>
+          <t>Terrasses_baha'ies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les terrasses baha'ies se composent de neuf cercles concentriques formant la géométrie principale des dix-huit terrasses. 
 Les jardins s'étendent sur presque un kilomètre depuis le mont Carmel, couvrant environ 200 000 m2 (20 ha) de terres. Ils sont reliés entre eux par des séries d'escaliers le long desquels coulent deux canaux artificiels en cascade. 
-Les terrasses baha'ies sont réputées pour être très bien entretenues[1][style à revoir].
+Les terrasses baha'ies sont réputées pour être très bien entretenues[style à revoir].
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Terrasses_baha%27ies</t>
+          <t>Terrasses_baha'ies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Les terrasses supérieures depuis le mausolée
